--- a/procesador/datos/Listado de proyectos - 60 años dpto antropología0802.xlsx
+++ b/procesador/datos/Listado de proyectos - 60 años dpto antropología0802.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_ulloag_uniandes_edu_co/Documents/60 años departamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{325C8B6D-D442-4465-A9E2-D4F38B37F3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8230DC52-7348-4231-8A26-E8B48DF4F987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyectos" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="3190" r:id="rId11"/>
+    <pivotCache cacheId="1458" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="970">
   <si>
     <t>Proyectos -  Departamento de antropología</t>
   </si>
@@ -677,7 +677,7 @@
     <t>Con la legitimación de las lenguas indígenas y criollas en la Constitución Política de Colombia de 1991 se marca un hito de la supervivencia de las lenguas y culturas étnicas del país. Este hecho surge dentro de la actual tendencia nacional e internacional hacia el reconocimiento de la diversidad étnica y de los derechos de las minorías. Ante los múltiples y dispersos esfuerzos que se han venido dando para dar cumpliemiento a los derechos lingüísticos planteados en el marco constitucional de 1991, es necesario obtener una visión de conjunto acerca de la evolución de las comunidades autóctonas y sus desarrollos culturales frente a la influencia de la cultura dominante. Es sólo a través de una comprensión de las fuerzas históricas y sociales desde el pasado hasta el presente que se pueden llegar a asumir criterios claros acerca de la evolución de las culturas minoritarias, para así llegar a definir derroteros precisos para su fortalecimiento y su desarrollo.</t>
   </si>
   <si>
-    <t>https://www.instagram.com/pajarostejedores/, https://www.facebook.com/lenguayculturaembera/ https://lenguayculturaembe.wixsite.com/embera</t>
+    <t>https://www.instagram.com/pajarostejedores/ https://www.facebook.com/lenguayculturaembera/ https://lenguayculturaembe.wixsite.com/embera</t>
   </si>
   <si>
     <t>SemilleroEtnolinguistica_Portada</t>
@@ -1992,6 +1992,9 @@
     <t>Guangzhou</t>
   </si>
   <si>
+    <t>23.1591</t>
+  </si>
+  <si>
     <t>La Cruz</t>
   </si>
   <si>
@@ -2064,6 +2067,9 @@
     <t>Shanghai</t>
   </si>
   <si>
+    <t>31.2245159</t>
+  </si>
+  <si>
     <t>Silvia</t>
   </si>
   <si>
@@ -2427,10 +2433,16 @@
     <t xml:space="preserve">Delvi Gomez Muñoz </t>
   </si>
   <si>
+    <t>Instituto para la Investigación Educativa y el Desarrollo Pedagógico</t>
+  </si>
+  <si>
+    <t>Estado, Educación</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diana Bocarejo </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Universidad del Rosario</t>
   </si>
   <si>
     <t xml:space="preserve">Diana Marcela Aristizábal. </t>
@@ -2442,13 +2454,16 @@
     <t xml:space="preserve">Eduardo Oramas </t>
   </si>
   <si>
-    <t>Elena Uprimmy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">academia </t>
+    <t>Universidad Distrital de Colombia</t>
   </si>
   <si>
     <t>Emilia Bayón </t>
+  </si>
+  <si>
+    <t>Jardin Botánico de Bogotá</t>
+  </si>
+  <si>
+    <t>Agricultura urbana</t>
   </si>
   <si>
     <t xml:space="preserve">Emilio Juanita Gallón Escobar </t>
@@ -2995,7 +3010,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3098,6 +3113,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -3204,7 +3225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3335,6 +3356,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6609,7 +6632,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4570351-E376-4474-B0C8-4F00FB638DE4}" name="Tabla dinámica1" cacheId="3190" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4570351-E376-4474-B0C8-4F00FB638DE4}" name="Tabla dinámica1" cacheId="1458" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A2:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -7254,7 +7277,7 @@
       <c r="A3" s="53">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="68" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -7319,7 +7342,7 @@
       <c r="A4" s="53">
         <v>2</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="69" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -7387,7 +7410,7 @@
       <c r="A5" s="53">
         <v>3</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="69" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -7455,7 +7478,7 @@
       <c r="A6" s="53">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="69" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -7909,7 +7932,7 @@
       <c r="A14" s="53">
         <v>12</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="69" t="s">
         <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -8113,7 +8136,7 @@
       <c r="A17" s="53">
         <v>15</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="70" t="s">
         <v>112</v>
       </c>
       <c r="C17" s="24" t="s">
@@ -8131,7 +8154,7 @@
       <c r="G17" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="68" t="s">
+      <c r="H17" s="70" t="s">
         <v>114</v>
       </c>
       <c r="I17" s="24" t="s">
@@ -8181,7 +8204,7 @@
       <c r="A18" s="53">
         <v>16</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="69" t="s">
         <v>122</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -8599,7 +8622,7 @@
       <c r="A26" s="53">
         <v>24</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="69" t="s">
         <v>162</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -8749,7 +8772,7 @@
       <c r="A29" s="53">
         <v>27</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="69" t="s">
         <v>178</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -8758,13 +8781,13 @@
       <c r="E29" s="2">
         <v>2000</v>
       </c>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="69" t="s">
         <v>179</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H29" s="67" t="s">
+      <c r="H29" s="69" t="s">
         <v>181</v>
       </c>
       <c r="I29" s="2" t="s">
@@ -8814,7 +8837,7 @@
       <c r="A30" s="53">
         <v>28</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="69" t="s">
         <v>186</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -8826,13 +8849,13 @@
       <c r="E30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="69" t="s">
         <v>187</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H30" s="67" t="s">
+      <c r="H30" s="69" t="s">
         <v>188</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -8882,7 +8905,7 @@
       <c r="A31" s="53">
         <v>29</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="69" t="s">
         <v>199</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -8891,13 +8914,13 @@
       <c r="E31" s="2">
         <v>2010</v>
       </c>
-      <c r="F31" s="67" t="s">
+      <c r="F31" s="69" t="s">
         <v>187</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H31" s="67" t="s">
+      <c r="H31" s="69" t="s">
         <v>36</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -8947,7 +8970,7 @@
       <c r="A32" s="53">
         <v>30</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="69" t="s">
         <v>203</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -9015,7 +9038,7 @@
       <c r="A33" s="53">
         <v>31</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="69" t="s">
         <v>210</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -9033,7 +9056,7 @@
       <c r="G33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="67" t="s">
+      <c r="H33" s="69" t="s">
         <v>181</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -9083,7 +9106,7 @@
       <c r="A34" s="53">
         <v>32</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="69" t="s">
         <v>217</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -9355,7 +9378,7 @@
       <c r="A38" s="53">
         <v>36</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="69" t="s">
         <v>244</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -9491,7 +9514,7 @@
       <c r="A40" s="53">
         <v>38</v>
       </c>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="71" t="s">
         <v>259</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -9500,13 +9523,13 @@
       <c r="E40" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F40" s="67" t="s">
+      <c r="F40" s="69" t="s">
         <v>260</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H40" s="67"/>
+      <c r="H40" s="69"/>
       <c r="I40" s="2" t="s">
         <v>182</v>
       </c>
@@ -10045,7 +10068,7 @@
       <c r="A50" s="53">
         <v>50</v>
       </c>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="69" t="s">
         <v>310</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -10095,7 +10118,7 @@
       <c r="A51" s="53">
         <v>51</v>
       </c>
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="69" t="s">
         <v>313</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -10195,7 +10218,7 @@
       <c r="A53" s="53">
         <v>53</v>
       </c>
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="69" t="s">
         <v>322</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -10207,13 +10230,13 @@
       <c r="E53" s="2">
         <v>2010</v>
       </c>
-      <c r="F53" s="69" t="s">
+      <c r="F53" s="71" t="s">
         <v>318</v>
       </c>
-      <c r="G53" s="69" t="s">
+      <c r="G53" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H53" s="67" t="s">
+      <c r="H53" s="69" t="s">
         <v>72</v>
       </c>
       <c r="I53" s="2" t="s">
@@ -10381,7 +10404,7 @@
       <c r="M56" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="N56" s="69" t="s">
+      <c r="N56" s="71" t="s">
         <v>345</v>
       </c>
       <c r="O56" s="2" t="s">
@@ -10445,7 +10468,7 @@
       <c r="A58" s="53">
         <v>58</v>
       </c>
-      <c r="B58" s="67" t="s">
+      <c r="B58" s="69" t="s">
         <v>354</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -10460,7 +10483,7 @@
       <c r="F58" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G58" s="69" t="s">
+      <c r="G58" s="71" t="s">
         <v>26</v>
       </c>
       <c r="H58" s="2" t="s">
@@ -10695,7 +10718,7 @@
       <c r="A63" s="53">
         <v>63</v>
       </c>
-      <c r="B63" s="67" t="s">
+      <c r="B63" s="69" t="s">
         <v>376</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -10742,7 +10765,7 @@
       <c r="A64" s="53">
         <v>64</v>
       </c>
-      <c r="B64" s="67" t="s">
+      <c r="B64" s="69" t="s">
         <v>380</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -10842,7 +10865,7 @@
       <c r="A66" s="53">
         <v>66</v>
       </c>
-      <c r="B66" s="67" t="s">
+      <c r="B66" s="69" t="s">
         <v>390</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -10889,7 +10912,7 @@
       <c r="A67" s="53">
         <v>67</v>
       </c>
-      <c r="B67" s="67" t="s">
+      <c r="B67" s="69" t="s">
         <v>392</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -10907,7 +10930,7 @@
       <c r="G67" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H67" s="67" t="s">
+      <c r="H67" s="69" t="s">
         <v>114</v>
       </c>
       <c r="I67" s="2" t="s">
@@ -10939,7 +10962,7 @@
       <c r="A68" s="53">
         <v>68</v>
       </c>
-      <c r="B68" s="67" t="s">
+      <c r="B68" s="69" t="s">
         <v>396</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -10957,7 +10980,7 @@
       <c r="G68" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H68" s="67" t="s">
+      <c r="H68" s="69" t="s">
         <v>114</v>
       </c>
       <c r="I68" s="2" t="s">
@@ -11039,7 +11062,7 @@
       <c r="A70" s="53">
         <v>70</v>
       </c>
-      <c r="B70" s="67" t="s">
+      <c r="B70" s="69" t="s">
         <v>402</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -11239,7 +11262,7 @@
       <c r="A74" s="53">
         <v>74</v>
       </c>
-      <c r="B74" s="67" t="s">
+      <c r="B74" s="69" t="s">
         <v>422</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -11257,7 +11280,7 @@
       <c r="G74" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H74" s="67" t="s">
+      <c r="H74" s="69" t="s">
         <v>181</v>
       </c>
       <c r="J74" s="2" t="s">
@@ -11286,7 +11309,7 @@
       <c r="A75" s="53">
         <v>75</v>
       </c>
-      <c r="B75" s="67" t="s">
+      <c r="B75" s="69" t="s">
         <v>427</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -11304,7 +11327,7 @@
       <c r="G75" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H75" s="67" t="s">
+      <c r="H75" s="69" t="s">
         <v>181</v>
       </c>
       <c r="I75" s="2" t="s">
@@ -11336,7 +11359,7 @@
       <c r="A76" s="53">
         <v>76</v>
       </c>
-      <c r="B76" s="67" t="s">
+      <c r="B76" s="69" t="s">
         <v>428</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -11480,7 +11503,7 @@
       <c r="A79" s="53">
         <v>79</v>
       </c>
-      <c r="B79" s="67" t="s">
+      <c r="B79" s="69" t="s">
         <v>442</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -11730,7 +11753,7 @@
       <c r="A84" s="53">
         <v>88</v>
       </c>
-      <c r="B84" s="67" t="s">
+      <c r="B84" s="69" t="s">
         <v>462</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -11780,7 +11803,7 @@
       <c r="A85" s="53">
         <v>89</v>
       </c>
-      <c r="B85" s="67" t="s">
+      <c r="B85" s="69" t="s">
         <v>466</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -11795,7 +11818,7 @@
       <c r="F85" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="G85" s="69" t="s">
+      <c r="G85" s="71" t="s">
         <v>26</v>
       </c>
       <c r="H85" s="3"/>
@@ -11828,7 +11851,7 @@
       <c r="A86" s="53">
         <v>90</v>
       </c>
-      <c r="B86" s="67" t="s">
+      <c r="B86" s="69" t="s">
         <v>471</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -11843,7 +11866,7 @@
       <c r="F86" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="G86" s="69" t="s">
+      <c r="G86" s="71" t="s">
         <v>26</v>
       </c>
       <c r="H86" s="3"/>
@@ -11885,13 +11908,13 @@
       <c r="E87" s="2">
         <v>1960</v>
       </c>
-      <c r="F87" s="69" t="s">
+      <c r="F87" s="71" t="s">
         <v>476</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H87" s="69" t="s">
+      <c r="H87" s="71" t="s">
         <v>36</v>
       </c>
       <c r="I87" s="2" t="s">
@@ -11923,7 +11946,7 @@
       <c r="A88" s="53">
         <v>92</v>
       </c>
-      <c r="B88" s="68" t="s">
+      <c r="B88" s="70" t="s">
         <v>480</v>
       </c>
       <c r="C88" s="24" t="s">
@@ -11932,13 +11955,13 @@
       <c r="E88" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F88" s="68" t="s">
+      <c r="F88" s="70" t="s">
         <v>481</v>
       </c>
-      <c r="G88" s="68" t="s">
+      <c r="G88" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H88" s="68" t="s">
+      <c r="H88" s="70" t="s">
         <v>72</v>
       </c>
       <c r="I88" s="24" t="s">
@@ -11982,7 +12005,7 @@
       <c r="F89" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G89" s="69" t="s">
+      <c r="G89" s="71" t="s">
         <v>26</v>
       </c>
       <c r="H89" s="2" t="s">
@@ -12017,7 +12040,7 @@
       <c r="A90" s="53">
         <v>94</v>
       </c>
-      <c r="B90" s="67" t="s">
+      <c r="B90" s="69" t="s">
         <v>488</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -12029,7 +12052,7 @@
       <c r="F90" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G90" s="69" t="s">
+      <c r="G90" s="71" t="s">
         <v>26</v>
       </c>
       <c r="H90" s="2" t="s">
@@ -12064,7 +12087,7 @@
       <c r="A91" s="53">
         <v>95</v>
       </c>
-      <c r="B91" s="67" t="s">
+      <c r="B91" s="69" t="s">
         <v>492</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -12076,7 +12099,7 @@
       <c r="F91" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G91" s="69" t="s">
+      <c r="G91" s="71" t="s">
         <v>26</v>
       </c>
       <c r="H91" s="2" t="s">
@@ -12181,7 +12204,7 @@
       <c r="A94" s="53">
         <v>98</v>
       </c>
-      <c r="B94" s="67" t="s">
+      <c r="B94" s="69" t="s">
         <v>498</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -12228,7 +12251,7 @@
       <c r="A95" s="53">
         <v>100</v>
       </c>
-      <c r="B95" s="67" t="s">
+      <c r="B95" s="69" t="s">
         <v>505</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -12328,7 +12351,7 @@
       <c r="A97" s="53">
         <v>102</v>
       </c>
-      <c r="B97" s="67" t="s">
+      <c r="B97" s="69" t="s">
         <v>516</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -12378,7 +12401,7 @@
       <c r="A98" s="53">
         <v>103</v>
       </c>
-      <c r="B98" s="67" t="s">
+      <c r="B98" s="69" t="s">
         <v>522</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -12428,7 +12451,7 @@
       <c r="A99" s="53">
         <v>104</v>
       </c>
-      <c r="B99" s="67" t="s">
+      <c r="B99" s="69" t="s">
         <v>528</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -12478,7 +12501,7 @@
       <c r="A100" s="53">
         <v>105</v>
       </c>
-      <c r="B100" s="67" t="s">
+      <c r="B100" s="69" t="s">
         <v>532</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -12528,7 +12551,7 @@
       <c r="A101" s="53">
         <v>106</v>
       </c>
-      <c r="B101" s="67" t="s">
+      <c r="B101" s="69" t="s">
         <v>537</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -12578,7 +12601,7 @@
       <c r="A102" s="53">
         <v>107</v>
       </c>
-      <c r="B102" s="67" t="s">
+      <c r="B102" s="69" t="s">
         <v>540</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -12628,7 +12651,7 @@
       <c r="A103" s="53">
         <v>108</v>
       </c>
-      <c r="B103" s="67" t="s">
+      <c r="B103" s="69" t="s">
         <v>545</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -12678,7 +12701,7 @@
       <c r="A104" s="53">
         <v>109</v>
       </c>
-      <c r="B104" s="70" t="s">
+      <c r="B104" s="72" t="s">
         <v>548</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -12728,7 +12751,7 @@
       <c r="A105" s="53">
         <v>110</v>
       </c>
-      <c r="B105" s="67" t="s">
+      <c r="B105" s="69" t="s">
         <v>550</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -12772,7 +12795,7 @@
       <c r="A106" s="53">
         <v>111</v>
       </c>
-      <c r="B106" s="67" t="s">
+      <c r="B106" s="69" t="s">
         <v>557</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -12822,7 +12845,7 @@
       <c r="A107" s="53">
         <v>112</v>
       </c>
-      <c r="B107" s="67" t="s">
+      <c r="B107" s="69" t="s">
         <v>562</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -12872,7 +12895,7 @@
       <c r="A108" s="53">
         <v>113</v>
       </c>
-      <c r="B108" s="67" t="s">
+      <c r="B108" s="69" t="s">
         <v>566</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -12910,7 +12933,7 @@
       <c r="A109" s="53">
         <v>114</v>
       </c>
-      <c r="B109" s="67" t="s">
+      <c r="B109" s="69" t="s">
         <v>570</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -12945,7 +12968,7 @@
       <c r="A110" s="53">
         <v>115</v>
       </c>
-      <c r="B110" s="67" t="s">
+      <c r="B110" s="69" t="s">
         <v>574</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -12977,7 +13000,7 @@
       <c r="A111" s="53">
         <v>116</v>
       </c>
-      <c r="B111" s="67" t="s">
+      <c r="B111" s="69" t="s">
         <v>577</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -13006,7 +13029,7 @@
       <c r="A112" s="53">
         <v>117</v>
       </c>
-      <c r="B112" s="67" t="s">
+      <c r="B112" s="69" t="s">
         <v>578</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -13038,7 +13061,7 @@
       <c r="A113" s="53">
         <v>118</v>
       </c>
-      <c r="B113" s="67" t="s">
+      <c r="B113" s="69" t="s">
         <v>581</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -13070,7 +13093,7 @@
       <c r="A114" s="53">
         <v>119</v>
       </c>
-      <c r="B114" s="67" t="s">
+      <c r="B114" s="69" t="s">
         <v>582</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -13105,7 +13128,7 @@
       <c r="A115" s="53">
         <v>120</v>
       </c>
-      <c r="B115" s="67" t="s">
+      <c r="B115" s="69" t="s">
         <v>584</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -13140,7 +13163,7 @@
       <c r="A116" s="53">
         <v>121</v>
       </c>
-      <c r="B116" s="67" t="s">
+      <c r="B116" s="69" t="s">
         <v>585</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -13166,7 +13189,7 @@
       <c r="A117" s="53">
         <v>122</v>
       </c>
-      <c r="B117" s="67" t="s">
+      <c r="B117" s="69" t="s">
         <v>586</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -13201,7 +13224,7 @@
       <c r="A118" s="53">
         <v>123</v>
       </c>
-      <c r="B118" s="67" t="s">
+      <c r="B118" s="69" t="s">
         <v>589</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -13233,7 +13256,7 @@
       <c r="A119" s="53">
         <v>124</v>
       </c>
-      <c r="B119" s="67" t="s">
+      <c r="B119" s="69" t="s">
         <v>590</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -13417,22 +13440,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="18" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
     </row>
   </sheetData>
@@ -13479,7 +13502,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="68" t="s">
         <v>180</v>
       </c>
       <c r="B4" t="s">
@@ -13537,8 +13560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD282CD5-9C0B-4341-8BE6-025B18AE95E3}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14569,9 +14592,8 @@
         <f>REPLACE(E34,4,0,".")</f>
         <v>113.2441016537150</v>
       </c>
-      <c r="H34" t="str">
-        <f>LEFT(F34,7)</f>
-        <v>2.31591</v>
+      <c r="H34" s="66" t="s">
+        <v>632</v>
       </c>
       <c r="I34" t="str">
         <f>LEFT(G34,9)</f>
@@ -14646,7 +14668,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="27" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -14675,7 +14697,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="26" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B38" s="28">
         <v>9917671756661290</v>
@@ -14708,7 +14730,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="27" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B39" s="25">
         <v>1.13778579581988E+16</v>
@@ -14807,7 +14829,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="27" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B42" s="25">
         <v>6216123118943550</v>
@@ -14840,7 +14862,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B43" s="25">
         <v>4138024529068210</v>
@@ -14873,7 +14895,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="26" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D44" s="39">
         <v>193904678</v>
@@ -14933,7 +14955,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="27" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B46" s="25">
         <v>1.15241553460592E+16</v>
@@ -15032,7 +15054,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="26" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B49" s="25">
         <v>3.6224023859667904E+16</v>
@@ -15098,7 +15120,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="27" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B51" s="29">
         <v>4307488762157300</v>
@@ -15131,7 +15153,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="26" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B52" s="25">
         <v>3.9340566766435296E+16</v>
@@ -15164,13 +15186,13 @@
     </row>
     <row r="53" spans="1:9" ht="30.75">
       <c r="A53" s="26" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F53" s="29"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="27" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B54" s="25">
         <v>1210092679675750</v>
@@ -15203,7 +15225,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="41" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B55" s="25">
         <v>2.71352827045628E+16</v>
@@ -15302,7 +15324,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="26" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B58" s="25">
         <v>244109138263947</v>
@@ -15335,7 +15357,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="26" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B59" s="25">
         <v>627999404522692</v>
@@ -15434,7 +15456,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="26" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B62" s="25">
         <v>453576517784721</v>
@@ -15467,7 +15489,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B63" s="25">
         <v>4745296657328430</v>
@@ -15500,7 +15522,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="26" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B64" s="25">
         <v>553958182674053</v>
@@ -15533,18 +15555,18 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="26" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="30.75">
       <c r="A66" s="27" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:9" ht="30.75">
       <c r="A67" s="27" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -15714,7 +15736,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="27" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B73" s="25">
         <v>1.07729606535098E+16</v>
@@ -15747,7 +15769,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="41" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B74" s="25">
         <v>1.01198001172536E+16</v>
@@ -15780,7 +15802,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="26" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B75" s="25">
         <v>3.11315288765787E+16</v>
@@ -15802,9 +15824,8 @@
         <f>REPLACE(E75,4,0,".")</f>
         <v>121.52756456942000</v>
       </c>
-      <c r="H75" t="str">
-        <f>LEFT(F75,8)</f>
-        <v>3.113152</v>
+      <c r="H75" s="67" t="s">
+        <v>657</v>
       </c>
       <c r="I75" t="str">
         <f>LEFT(G75,9)</f>
@@ -15846,7 +15867,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="27" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B77" s="25">
         <v>2612557696041020</v>
@@ -15879,7 +15900,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="26" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B78" s="25">
         <v>5502895488591320</v>
@@ -15978,7 +15999,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="26" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B81" s="25">
         <v>5637064875949180</v>
@@ -16011,7 +16032,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="26" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B82" s="25">
         <v>5453561005321650</v>
@@ -16044,7 +16065,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="26" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B83" s="25">
         <v>562011025013234</v>
@@ -16110,7 +16131,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="26" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B85" s="25">
         <v>2.45220234017254E+16</v>
@@ -16143,7 +16164,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="27" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B86" s="25">
         <v>9328041425226080</v>
@@ -16176,7 +16197,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="26" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B87" s="25">
         <v>557885984104821</v>
@@ -16209,7 +16230,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="27" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B88" s="29">
         <v>4254571818973120</v>
@@ -16308,7 +16329,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="27" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B91" s="25">
         <v>1.17155749176276E+16</v>
@@ -16440,7 +16461,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="27" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B95" s="25">
         <v>563714002708056</v>
@@ -16506,7 +16527,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="27" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B97" s="25">
         <v>388957260295292</v>
@@ -16571,8 +16592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCD70B0-A791-439F-BF2F-1756F6282BE8}">
   <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -16588,2366 +16609,2406 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="71" t="s">
-        <v>668</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="66"/>
+      <c r="A1" s="73" t="s">
+        <v>670</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="46" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="48" t="s">
-        <v>676</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="C3" s="67" t="s">
         <v>678</v>
       </c>
+      <c r="B3" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>680</v>
+      </c>
       <c r="D3" s="61" t="s">
-        <v>679</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>680</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>635</v>
-      </c>
-      <c r="G3" s="66" t="s">
+        <v>681</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>682</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>636</v>
+      </c>
+      <c r="G3" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30.75">
       <c r="A4" s="49" t="s">
-        <v>681</v>
-      </c>
-      <c r="B4" s="72">
+        <v>683</v>
+      </c>
+      <c r="B4" s="74">
         <v>2003</v>
       </c>
-      <c r="C4" s="73" t="s">
-        <v>682</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>683</v>
-      </c>
-      <c r="E4" s="74" t="s">
+      <c r="C4" s="75" t="s">
         <v>684</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="D4" s="75" t="s">
+        <v>685</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>686</v>
+      </c>
+      <c r="F4" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="49" t="s">
-        <v>685</v>
-      </c>
-      <c r="B5" s="75">
+        <v>687</v>
+      </c>
+      <c r="B5" s="77">
         <v>2004</v>
       </c>
-      <c r="C5" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="74" t="s">
-        <v>680</v>
-      </c>
-      <c r="F5" s="66" t="s">
-        <v>635</v>
-      </c>
-      <c r="G5" s="66" t="s">
+      <c r="C5" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="76" t="s">
+        <v>682</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>636</v>
+      </c>
+      <c r="G5" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="49" t="s">
-        <v>686</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="G6" s="72" t="s">
-        <v>677</v>
+        <v>688</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="49" t="s">
-        <v>687</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="F7" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="G7" s="72" t="s">
-        <v>677</v>
+        <v>689</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="48" t="s">
-        <v>688</v>
-      </c>
-      <c r="B8" s="74">
+        <v>690</v>
+      </c>
+      <c r="B8" s="76">
         <v>2019</v>
       </c>
-      <c r="C8" s="74" t="s">
-        <v>677</v>
-      </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74" t="s">
-        <v>680</v>
-      </c>
-      <c r="F8" s="66" t="s">
+      <c r="C8" s="76" t="s">
+        <v>679</v>
+      </c>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76" t="s">
+        <v>682</v>
+      </c>
+      <c r="F8" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="48" t="s">
-        <v>689</v>
-      </c>
-      <c r="B9" s="74">
+        <v>691</v>
+      </c>
+      <c r="B9" s="76">
         <v>2021</v>
       </c>
-      <c r="C9" s="74" t="s">
-        <v>677</v>
-      </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74" t="s">
-        <v>690</v>
-      </c>
-      <c r="F9" s="66" t="s">
+      <c r="C9" s="76" t="s">
+        <v>679</v>
+      </c>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76" t="s">
+        <v>692</v>
+      </c>
+      <c r="F9" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="49" t="s">
-        <v>691</v>
-      </c>
-      <c r="B10" s="72">
+        <v>693</v>
+      </c>
+      <c r="B10" s="74">
         <v>2023</v>
       </c>
-      <c r="C10" s="72" t="s">
-        <v>692</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>693</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="C10" s="74" t="s">
         <v>694</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="D10" s="74" t="s">
         <v>695</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="E10" s="76" t="s">
+        <v>696</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>697</v>
+      </c>
+      <c r="G10" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.5" customHeight="1">
       <c r="A11" s="49" t="s">
-        <v>696</v>
-      </c>
-      <c r="B11" s="72">
+        <v>698</v>
+      </c>
+      <c r="B11" s="74">
         <v>2019</v>
       </c>
-      <c r="C11" s="72" t="s">
-        <v>697</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>698</v>
-      </c>
-      <c r="E11" s="72" t="s">
+      <c r="C11" s="74" t="s">
         <v>699</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="D11" s="74" t="s">
         <v>700</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="E11" s="74" t="s">
         <v>701</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1">
       <c r="A12" s="49" t="s">
-        <v>702</v>
-      </c>
-      <c r="B12" s="74">
+        <v>704</v>
+      </c>
+      <c r="B12" s="76">
         <v>1973</v>
       </c>
-      <c r="C12" s="74" t="s">
-        <v>703</v>
-      </c>
-      <c r="D12" s="74" t="s">
+      <c r="C12" s="76" t="s">
+        <v>705</v>
+      </c>
+      <c r="D12" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="72" t="s">
-        <v>699</v>
-      </c>
-      <c r="F12" s="66" t="s">
+      <c r="E12" s="74" t="s">
+        <v>701</v>
+      </c>
+      <c r="F12" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="66" t="s">
+      <c r="G12" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45.75">
       <c r="A13" s="49" t="s">
-        <v>704</v>
-      </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67" t="s">
-        <v>705</v>
-      </c>
-      <c r="D13" s="67" t="s">
         <v>706</v>
       </c>
-      <c r="E13" s="74" t="s">
-        <v>699</v>
-      </c>
-      <c r="F13" s="66" t="s">
+      <c r="B13" s="69"/>
+      <c r="C13" s="69" t="s">
         <v>707</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="D13" s="69" t="s">
+        <v>708</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>701</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>709</v>
+      </c>
+      <c r="G13" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24" customHeight="1">
       <c r="A14" s="50" t="s">
-        <v>708</v>
-      </c>
-      <c r="B14" s="72">
+        <v>710</v>
+      </c>
+      <c r="B14" s="74">
         <v>2018</v>
       </c>
-      <c r="C14" s="72" t="s">
-        <v>709</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>710</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>690</v>
-      </c>
-      <c r="F14" s="66" t="s">
+      <c r="C14" s="74" t="s">
+        <v>711</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>712</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>692</v>
+      </c>
+      <c r="F14" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
       <c r="A15" s="50" t="s">
-        <v>711</v>
-      </c>
-      <c r="B15" s="72">
+        <v>713</v>
+      </c>
+      <c r="B15" s="74">
         <v>2021</v>
       </c>
-      <c r="C15" s="72" t="s">
-        <v>712</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>713</v>
-      </c>
-      <c r="E15" s="72" t="s">
+      <c r="C15" s="74" t="s">
         <v>714</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="D15" s="74" t="s">
+        <v>715</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>716</v>
+      </c>
+      <c r="F15" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="50" t="s">
-        <v>715</v>
-      </c>
-      <c r="B16" s="74">
+        <v>717</v>
+      </c>
+      <c r="B16" s="76">
         <v>2020</v>
       </c>
-      <c r="C16" s="74" t="s">
-        <v>716</v>
-      </c>
-      <c r="D16" s="74" t="s">
+      <c r="C16" s="76" t="s">
+        <v>718</v>
+      </c>
+      <c r="D16" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="74" t="s">
-        <v>694</v>
-      </c>
-      <c r="F16" s="66" t="s">
+      <c r="E16" s="76" t="s">
+        <v>696</v>
+      </c>
+      <c r="F16" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="21" customHeight="1">
       <c r="A17" s="51" t="s">
-        <v>717</v>
-      </c>
-      <c r="B17" s="72">
+        <v>719</v>
+      </c>
+      <c r="B17" s="74">
         <v>2008</v>
       </c>
-      <c r="C17" s="72" t="s">
-        <v>718</v>
+      <c r="C17" s="74" t="s">
+        <v>720</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>719</v>
-      </c>
-      <c r="E17" s="74" t="s">
-        <v>694</v>
-      </c>
-      <c r="F17" s="66" t="s">
+        <v>721</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>696</v>
+      </c>
+      <c r="F17" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" customHeight="1">
       <c r="A18" s="48" t="s">
-        <v>720</v>
-      </c>
-      <c r="B18" s="72">
+        <v>722</v>
+      </c>
+      <c r="B18" s="74">
         <v>1999</v>
       </c>
-      <c r="C18" s="72" t="s">
-        <v>721</v>
-      </c>
-      <c r="D18" s="72" t="s">
+      <c r="C18" s="74" t="s">
+        <v>723</v>
+      </c>
+      <c r="D18" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="F18" s="66" t="s">
+      <c r="E18" s="74" t="s">
+        <v>682</v>
+      </c>
+      <c r="F18" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="48" t="s">
-        <v>722</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="C19" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="F19" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="G19" s="72" t="s">
-        <v>677</v>
+        <v>724</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="49" t="s">
-        <v>723</v>
-      </c>
-      <c r="B20" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="C20" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="F20" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="G20" s="72" t="s">
-        <v>677</v>
+        <v>725</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="21.75" customHeight="1">
       <c r="A21" s="49" t="s">
-        <v>724</v>
-      </c>
-      <c r="B21" s="72">
+        <v>726</v>
+      </c>
+      <c r="B21" s="74">
         <v>2014</v>
       </c>
-      <c r="C21" s="72" t="s">
-        <v>725</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>698</v>
-      </c>
-      <c r="E21" s="72" t="s">
-        <v>726</v>
-      </c>
-      <c r="F21" s="66" t="s">
+      <c r="C21" s="74" t="s">
+        <v>727</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>700</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>728</v>
+      </c>
+      <c r="F21" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="50" t="s">
-        <v>727</v>
-      </c>
-      <c r="B22" s="72">
+        <v>729</v>
+      </c>
+      <c r="B22" s="74">
         <v>2019</v>
       </c>
-      <c r="C22" s="72" t="s">
-        <v>728</v>
-      </c>
-      <c r="D22" s="72" t="s">
-        <v>729</v>
-      </c>
-      <c r="E22" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="F22" s="66" t="s">
+      <c r="C22" s="74" t="s">
+        <v>730</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>731</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>682</v>
+      </c>
+      <c r="F22" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="49" t="s">
-        <v>730</v>
-      </c>
-      <c r="B23" s="72">
+        <v>732</v>
+      </c>
+      <c r="B23" s="74">
         <v>2020</v>
       </c>
-      <c r="C23" s="72" t="s">
-        <v>731</v>
-      </c>
-      <c r="D23" s="72" t="s">
-        <v>732</v>
-      </c>
-      <c r="E23" s="72" t="s">
-        <v>690</v>
-      </c>
-      <c r="F23" s="66" t="s">
+      <c r="C23" s="74" t="s">
+        <v>733</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>734</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>692</v>
+      </c>
+      <c r="F23" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="66" t="s">
+      <c r="G23" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="B24" s="72">
+        <v>735</v>
+      </c>
+      <c r="B24" s="74">
         <v>2019</v>
       </c>
-      <c r="C24" s="72" t="s">
-        <v>734</v>
-      </c>
-      <c r="D24" s="72" t="s">
-        <v>679</v>
-      </c>
-      <c r="E24" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="F24" s="66" t="s">
+      <c r="C24" s="74" t="s">
+        <v>736</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>681</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>682</v>
+      </c>
+      <c r="F24" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="27.75" customHeight="1">
       <c r="A25" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="B25" s="67">
+        <v>737</v>
+      </c>
+      <c r="B25" s="69">
         <v>1985</v>
       </c>
-      <c r="C25" s="72" t="s">
-        <v>736</v>
-      </c>
-      <c r="D25" s="72" t="s">
-        <v>698</v>
-      </c>
-      <c r="E25" s="74" t="s">
-        <v>699</v>
-      </c>
-      <c r="F25" s="66" t="s">
+      <c r="C25" s="74" t="s">
+        <v>738</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>700</v>
+      </c>
+      <c r="E25" s="76" t="s">
+        <v>701</v>
+      </c>
+      <c r="F25" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="66" t="s">
+      <c r="G25" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1">
-      <c r="A26" s="66" t="s">
-        <v>737</v>
-      </c>
-      <c r="B26" s="72">
+      <c r="A26" s="68" t="s">
+        <v>739</v>
+      </c>
+      <c r="B26" s="74">
         <v>1974</v>
       </c>
-      <c r="C26" s="72" t="s">
-        <v>738</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>698</v>
-      </c>
-      <c r="E26" s="72" t="s">
-        <v>684</v>
-      </c>
-      <c r="F26" s="66" t="s">
+      <c r="C26" s="74" t="s">
+        <v>740</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>700</v>
+      </c>
+      <c r="E26" s="74" t="s">
+        <v>686</v>
+      </c>
+      <c r="F26" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="66" t="s">
+      <c r="G26" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30.75">
       <c r="A27" s="48" t="s">
-        <v>739</v>
-      </c>
-      <c r="B27" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="C27" s="67" t="s">
-        <v>740</v>
-      </c>
-      <c r="D27" s="72" t="s">
-        <v>698</v>
-      </c>
-      <c r="E27" s="74" t="s">
-        <v>699</v>
-      </c>
-      <c r="F27" s="66" t="s">
         <v>741</v>
       </c>
-      <c r="G27" s="66" t="s">
+      <c r="B27" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="C27" s="69" t="s">
         <v>742</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>700</v>
+      </c>
+      <c r="E27" s="76" t="s">
+        <v>701</v>
+      </c>
+      <c r="F27" s="68" t="s">
+        <v>743</v>
+      </c>
+      <c r="G27" s="68" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="48" t="s">
-        <v>743</v>
-      </c>
-      <c r="B28" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="C28" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="F28" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="G28" s="72" t="s">
-        <v>677</v>
+        <v>745</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="C28" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="F28" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="G28" s="74" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="48" t="s">
-        <v>744</v>
-      </c>
-      <c r="B29" s="72">
+        <v>746</v>
+      </c>
+      <c r="B29" s="74">
         <v>2007</v>
       </c>
-      <c r="C29" s="72" t="s">
-        <v>745</v>
-      </c>
-      <c r="D29" s="72" t="s">
-        <v>698</v>
-      </c>
-      <c r="E29" s="72" t="s">
-        <v>699</v>
-      </c>
-      <c r="F29" s="66" t="s">
+      <c r="C29" s="74" t="s">
+        <v>747</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>700</v>
+      </c>
+      <c r="E29" s="74" t="s">
+        <v>701</v>
+      </c>
+      <c r="F29" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1">
       <c r="A30" s="48" t="s">
-        <v>746</v>
-      </c>
-      <c r="B30" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="C30" s="72" t="s">
+        <v>748</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="C30" s="74" t="s">
         <v>546</v>
       </c>
-      <c r="D30" s="72" t="s">
-        <v>747</v>
-      </c>
-      <c r="E30" s="72" t="s">
-        <v>748</v>
-      </c>
-      <c r="F30" s="66" t="s">
+      <c r="D30" s="74" t="s">
+        <v>749</v>
+      </c>
+      <c r="E30" s="74" t="s">
+        <v>750</v>
+      </c>
+      <c r="F30" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="66" t="s">
+      <c r="G30" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="48" t="s">
-        <v>749</v>
-      </c>
-      <c r="B31" s="74">
+        <v>751</v>
+      </c>
+      <c r="B31" s="76">
         <v>2007</v>
       </c>
-      <c r="C31" s="74" t="s">
-        <v>750</v>
-      </c>
-      <c r="D31" s="72" t="s">
-        <v>698</v>
-      </c>
-      <c r="E31" s="74" t="s">
-        <v>699</v>
-      </c>
-      <c r="F31" s="66" t="s">
-        <v>751</v>
-      </c>
-      <c r="G31" s="66" t="s">
+      <c r="C31" s="76" t="s">
         <v>752</v>
+      </c>
+      <c r="D31" s="74" t="s">
+        <v>700</v>
+      </c>
+      <c r="E31" s="76" t="s">
+        <v>701</v>
+      </c>
+      <c r="F31" s="68" t="s">
+        <v>753</v>
+      </c>
+      <c r="G31" s="68" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="48" t="s">
-        <v>753</v>
-      </c>
-      <c r="B32" s="74">
+        <v>755</v>
+      </c>
+      <c r="B32" s="76">
         <v>2008</v>
       </c>
-      <c r="C32" s="74" t="s">
-        <v>754</v>
-      </c>
-      <c r="D32" s="74" t="s">
-        <v>755</v>
-      </c>
-      <c r="E32" s="74" t="s">
+      <c r="C32" s="76" t="s">
         <v>756</v>
       </c>
-      <c r="F32" s="66" t="s">
+      <c r="D32" s="76" t="s">
         <v>757</v>
       </c>
-      <c r="G32" s="66" t="s">
+      <c r="E32" s="76" t="s">
+        <v>758</v>
+      </c>
+      <c r="F32" s="68" t="s">
+        <v>759</v>
+      </c>
+      <c r="G32" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="66" t="s">
-        <v>758</v>
-      </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="74" t="s">
+      <c r="A33" s="68" t="s">
+        <v>760</v>
+      </c>
+      <c r="B33" s="69"/>
+      <c r="C33" s="76" t="s">
         <v>292</v>
       </c>
-      <c r="D33" s="72" t="s">
-        <v>698</v>
-      </c>
-      <c r="E33" s="74" t="s">
-        <v>699</v>
-      </c>
-      <c r="F33" s="66" t="s">
+      <c r="D33" s="74" t="s">
+        <v>700</v>
+      </c>
+      <c r="E33" s="76" t="s">
+        <v>701</v>
+      </c>
+      <c r="F33" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.5" customHeight="1">
       <c r="A34" s="49" t="s">
-        <v>759</v>
-      </c>
-      <c r="B34" s="74">
+        <v>761</v>
+      </c>
+      <c r="B34" s="76">
         <v>2020</v>
       </c>
-      <c r="C34" s="74" t="s">
-        <v>760</v>
-      </c>
-      <c r="D34" s="74" t="s">
-        <v>761</v>
-      </c>
-      <c r="E34" s="74" t="s">
-        <v>680</v>
-      </c>
-      <c r="F34" s="66" t="s">
+      <c r="C34" s="76" t="s">
         <v>762</v>
       </c>
-      <c r="G34" s="66" t="s">
+      <c r="D34" s="76" t="s">
         <v>763</v>
+      </c>
+      <c r="E34" s="76" t="s">
+        <v>682</v>
+      </c>
+      <c r="F34" s="68" t="s">
+        <v>764</v>
+      </c>
+      <c r="G34" s="68" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="49" t="s">
-        <v>764</v>
-      </c>
-      <c r="B35" s="72">
+        <v>766</v>
+      </c>
+      <c r="B35" s="74">
         <v>2018</v>
       </c>
-      <c r="C35" s="74" t="s">
-        <v>765</v>
-      </c>
-      <c r="D35" s="72" t="s">
-        <v>698</v>
-      </c>
-      <c r="E35" s="74" t="s">
-        <v>699</v>
-      </c>
-      <c r="F35" s="66" t="s">
-        <v>766</v>
-      </c>
-      <c r="G35" s="66" t="s">
-        <v>752</v>
+      <c r="C35" s="76" t="s">
+        <v>767</v>
+      </c>
+      <c r="D35" s="74" t="s">
+        <v>700</v>
+      </c>
+      <c r="E35" s="76" t="s">
+        <v>701</v>
+      </c>
+      <c r="F35" s="68" t="s">
+        <v>768</v>
+      </c>
+      <c r="G35" s="68" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="49" t="s">
-        <v>767</v>
-      </c>
-      <c r="B36" s="72">
+        <v>769</v>
+      </c>
+      <c r="B36" s="74">
         <v>2020</v>
       </c>
-      <c r="C36" s="72" t="s">
-        <v>768</v>
-      </c>
-      <c r="D36" s="72" t="s">
-        <v>698</v>
-      </c>
-      <c r="E36" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="F36" s="66" t="s">
+      <c r="C36" s="74" t="s">
+        <v>770</v>
+      </c>
+      <c r="D36" s="74" t="s">
+        <v>700</v>
+      </c>
+      <c r="E36" s="74" t="s">
+        <v>682</v>
+      </c>
+      <c r="F36" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G36" s="66" t="s">
+      <c r="G36" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="49" t="s">
-        <v>769</v>
-      </c>
-      <c r="B37" s="72">
+        <v>771</v>
+      </c>
+      <c r="B37" s="74">
         <v>2022</v>
       </c>
-      <c r="C37" s="67" t="s">
-        <v>770</v>
-      </c>
-      <c r="D37" s="72" t="s">
-        <v>732</v>
-      </c>
-      <c r="E37" s="67" t="s">
-        <v>680</v>
-      </c>
-      <c r="F37" s="66" t="s">
+      <c r="C37" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="D37" s="74" t="s">
+        <v>734</v>
+      </c>
+      <c r="E37" s="69" t="s">
+        <v>682</v>
+      </c>
+      <c r="F37" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="66" t="s">
+      <c r="G37" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="49" t="s">
-        <v>771</v>
-      </c>
-      <c r="B38" s="67">
+        <v>773</v>
+      </c>
+      <c r="B38" s="69">
         <v>2017</v>
       </c>
-      <c r="C38" s="67" t="s">
-        <v>772</v>
-      </c>
-      <c r="D38" s="67" t="s">
-        <v>773</v>
-      </c>
-      <c r="E38" s="67" t="s">
-        <v>680</v>
-      </c>
-      <c r="F38" s="66" t="s">
-        <v>762</v>
-      </c>
-      <c r="G38" s="66" t="s">
-        <v>763</v>
+      <c r="C38" s="76" t="s">
+        <v>774</v>
+      </c>
+      <c r="D38" s="69" t="s">
+        <v>775</v>
+      </c>
+      <c r="E38" s="69" t="s">
+        <v>682</v>
+      </c>
+      <c r="F38" s="68" t="s">
+        <v>764</v>
+      </c>
+      <c r="G38" s="68" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30.75">
       <c r="A39" s="49" t="s">
-        <v>774</v>
-      </c>
-      <c r="B39" s="72">
+        <v>776</v>
+      </c>
+      <c r="B39" s="74">
         <v>2019</v>
       </c>
-      <c r="C39" s="72" t="s">
-        <v>775</v>
-      </c>
-      <c r="D39" s="72" t="s">
-        <v>713</v>
-      </c>
-      <c r="E39" s="72" t="s">
-        <v>690</v>
-      </c>
-      <c r="F39" s="66" t="s">
+      <c r="C39" s="74" t="s">
+        <v>777</v>
+      </c>
+      <c r="D39" s="74" t="s">
+        <v>715</v>
+      </c>
+      <c r="E39" s="74" t="s">
+        <v>692</v>
+      </c>
+      <c r="F39" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G39" s="66" t="s">
+      <c r="G39" s="68" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" ht="30.75">
       <c r="A40" s="48" t="s">
-        <v>776</v>
-      </c>
-      <c r="B40" s="72">
+        <v>778</v>
+      </c>
+      <c r="B40" s="74">
         <v>2001</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72" t="s">
-        <v>699</v>
-      </c>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
+      <c r="C40" s="74" t="s">
+        <v>779</v>
+      </c>
+      <c r="D40" s="74" t="s">
+        <v>780</v>
+      </c>
+      <c r="E40" s="74" t="s">
+        <v>750</v>
+      </c>
+      <c r="F40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="49" t="s">
-        <v>777</v>
-      </c>
-      <c r="B41" s="72">
+        <v>781</v>
+      </c>
+      <c r="B41" s="74">
         <v>2001</v>
       </c>
-      <c r="C41" s="72" t="s">
-        <v>778</v>
-      </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72" t="s">
-        <v>699</v>
-      </c>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
+      <c r="C41" s="74" t="s">
+        <v>782</v>
+      </c>
+      <c r="D41" s="74" t="s">
+        <v>700</v>
+      </c>
+      <c r="E41" s="74" t="s">
+        <v>701</v>
+      </c>
+      <c r="F41" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="68" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="48" t="s">
-        <v>779</v>
-      </c>
-      <c r="B42" s="74">
+        <v>783</v>
+      </c>
+      <c r="B42" s="76">
         <v>2021</v>
       </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="72" t="s">
-        <v>699</v>
-      </c>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
+      <c r="C42" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="D42" s="76" t="s">
+        <v>700</v>
+      </c>
+      <c r="E42" s="74" t="s">
+        <v>701</v>
+      </c>
+      <c r="F42" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="68" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="48" t="s">
-        <v>780</v>
-      </c>
-      <c r="B43" s="74">
+        <v>784</v>
+      </c>
+      <c r="B43" s="76">
         <v>1985</v>
       </c>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="72" t="s">
-        <v>699</v>
-      </c>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="74" t="s">
+        <v>701</v>
+      </c>
+      <c r="F43" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="68" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="B44" s="74">
+        <v>785</v>
+      </c>
+      <c r="B44" s="76">
         <v>2000</v>
       </c>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74" t="s">
-        <v>699</v>
-      </c>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
+      <c r="C44" s="76" t="s">
+        <v>786</v>
+      </c>
+      <c r="D44" s="76" t="s">
+        <v>700</v>
+      </c>
+      <c r="E44" s="76" t="s">
+        <v>701</v>
+      </c>
+      <c r="F44" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="68" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="66" t="s">
-        <v>782</v>
-      </c>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="74" t="s">
-        <v>783</v>
-      </c>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
+      <c r="A45" s="49" t="s">
+        <v>787</v>
+      </c>
+      <c r="B45" s="76">
+        <v>2019</v>
+      </c>
+      <c r="C45" s="76" t="s">
+        <v>788</v>
+      </c>
+      <c r="D45" s="76" t="s">
+        <v>789</v>
+      </c>
+      <c r="E45" s="76" t="s">
+        <v>758</v>
+      </c>
+      <c r="F45" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="68" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="49" t="s">
-        <v>784</v>
-      </c>
-      <c r="B46" s="74">
-        <v>2019</v>
-      </c>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74" t="s">
-        <v>756</v>
-      </c>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
+      <c r="A46" s="48" t="s">
+        <v>790</v>
+      </c>
+      <c r="B46" s="76">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76" t="s">
+        <v>692</v>
+      </c>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="48" t="s">
-        <v>785</v>
-      </c>
-      <c r="B47" s="74">
-        <v>2022</v>
-      </c>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74" t="s">
-        <v>690</v>
-      </c>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
+      <c r="A47" s="49" t="s">
+        <v>791</v>
+      </c>
+      <c r="B47" s="76">
+        <v>2000</v>
+      </c>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76" t="s">
+        <v>701</v>
+      </c>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="49" t="s">
-        <v>786</v>
-      </c>
-      <c r="B48" s="74">
-        <v>2000</v>
-      </c>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74" t="s">
-        <v>699</v>
-      </c>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
+      <c r="A48" s="48" t="s">
+        <v>792</v>
+      </c>
+      <c r="B48" s="76">
+        <v>2009</v>
+      </c>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76" t="s">
+        <v>682</v>
+      </c>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="48" t="s">
-        <v>787</v>
-      </c>
-      <c r="B49" s="74">
-        <v>2009</v>
-      </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74" t="s">
-        <v>680</v>
-      </c>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
+      <c r="A49" s="49" t="s">
+        <v>793</v>
+      </c>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="49" t="s">
-        <v>788</v>
-      </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
+        <v>794</v>
+      </c>
+      <c r="B50" s="74">
+        <v>2018</v>
+      </c>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74" t="s">
+        <v>696</v>
+      </c>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="49" t="s">
-        <v>789</v>
-      </c>
-      <c r="B51" s="72">
+      <c r="A51" s="68" t="s">
+        <v>795</v>
+      </c>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="76" t="s">
+        <v>701</v>
+      </c>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="49" t="s">
+        <v>796</v>
+      </c>
+      <c r="B52" s="76">
         <v>2018</v>
       </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72" t="s">
-        <v>694</v>
-      </c>
-      <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="66" t="s">
-        <v>790</v>
-      </c>
-      <c r="B52" s="67"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="74" t="s">
-        <v>699</v>
-      </c>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="49" t="s">
-        <v>791</v>
-      </c>
-      <c r="B53" s="74">
-        <v>2018</v>
-      </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="66"/>
+        <v>797</v>
+      </c>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="49" t="s">
-        <v>792</v>
-      </c>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="66"/>
+        <v>798</v>
+      </c>
+      <c r="B54" s="76">
+        <v>1989</v>
+      </c>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76" t="s">
+        <v>701</v>
+      </c>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="49" t="s">
-        <v>793</v>
-      </c>
-      <c r="B55" s="74">
-        <v>1989</v>
-      </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74" t="s">
-        <v>699</v>
-      </c>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
+      <c r="A55" s="48" t="s">
+        <v>799</v>
+      </c>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="48" t="s">
-        <v>794</v>
-      </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
+      <c r="A56" s="49" t="s">
+        <v>800</v>
+      </c>
+      <c r="B56" s="76">
+        <v>2004</v>
+      </c>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="49" t="s">
-        <v>795</v>
-      </c>
-      <c r="B57" s="74">
-        <v>2004</v>
-      </c>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
+      <c r="A57" s="48" t="s">
+        <v>801</v>
+      </c>
+      <c r="B57" s="76">
+        <v>2008</v>
+      </c>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="48" t="s">
-        <v>796</v>
-      </c>
-      <c r="B58" s="74">
-        <v>2008</v>
-      </c>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="66"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="48" t="s">
-        <v>797</v>
-      </c>
-      <c r="B59" s="74">
+        <v>802</v>
+      </c>
+      <c r="B58" s="76">
         <v>2006</v>
       </c>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-    </row>
-    <row r="60" spans="1:7" s="60" customFormat="1">
-      <c r="A60" s="59" t="s">
-        <v>798</v>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+    </row>
+    <row r="59" spans="1:7" s="60" customFormat="1">
+      <c r="A59" s="59" t="s">
+        <v>803</v>
+      </c>
+      <c r="B59" s="78"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="48" t="s">
+        <v>804</v>
       </c>
       <c r="B60" s="76"/>
       <c r="C60" s="76"/>
       <c r="D60" s="76"/>
       <c r="E60" s="76"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="48" t="s">
-        <v>799</v>
-      </c>
-      <c r="B61" s="74"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="66"/>
+        <v>805</v>
+      </c>
+      <c r="B61" s="76">
+        <v>2012</v>
+      </c>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="48" t="s">
-        <v>800</v>
-      </c>
-      <c r="B62" s="74">
-        <v>2012</v>
-      </c>
-      <c r="C62" s="74"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="66"/>
+        <v>806</v>
+      </c>
+      <c r="B62" s="76">
+        <v>2009</v>
+      </c>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="48" t="s">
-        <v>801</v>
-      </c>
-      <c r="B63" s="74">
-        <v>2009</v>
-      </c>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
+        <v>807</v>
+      </c>
+      <c r="B63" s="76">
+        <v>2005</v>
+      </c>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="48" t="s">
-        <v>802</v>
-      </c>
-      <c r="B64" s="74">
-        <v>2005</v>
-      </c>
-      <c r="C64" s="74"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
+      <c r="A64" s="49" t="s">
+        <v>808</v>
+      </c>
+      <c r="B64" s="76">
+        <v>2017</v>
+      </c>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76" t="s">
+        <v>692</v>
+      </c>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="49" t="s">
-        <v>803</v>
-      </c>
-      <c r="B65" s="74">
-        <v>2017</v>
-      </c>
-      <c r="C65" s="74"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74" t="s">
-        <v>690</v>
-      </c>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
+        <v>809</v>
+      </c>
+      <c r="B65" s="76">
+        <v>2019</v>
+      </c>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="49" t="s">
-        <v>804</v>
-      </c>
-      <c r="B66" s="74">
-        <v>2019</v>
-      </c>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="66"/>
+        <v>810</v>
+      </c>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="49" t="s">
-        <v>805</v>
-      </c>
-      <c r="B67" s="67"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
+      <c r="A67" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="68"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="66" t="s">
-        <v>260</v>
-      </c>
-      <c r="B68" s="67"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
+      <c r="A68" s="48" t="s">
+        <v>811</v>
+      </c>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="48" t="s">
-        <v>806</v>
-      </c>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
+      <c r="A69" s="49" t="s">
+        <v>812</v>
+      </c>
+      <c r="B69" s="76">
+        <v>2016</v>
+      </c>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76" t="s">
+        <v>682</v>
+      </c>
+      <c r="F69" s="68"/>
+      <c r="G69" s="68"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="49" t="s">
-        <v>807</v>
-      </c>
-      <c r="B70" s="74">
-        <v>2016</v>
-      </c>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74" t="s">
-        <v>680</v>
-      </c>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
+        <v>813</v>
+      </c>
+      <c r="B70" s="76">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="68"/>
+      <c r="G70" s="68"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="49" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="B71" s="74">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C71" s="74"/>
       <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
+      <c r="E71" s="74" t="s">
+        <v>701</v>
+      </c>
+      <c r="F71" s="68"/>
+      <c r="G71" s="68"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="49" t="s">
-        <v>809</v>
-      </c>
-      <c r="B72" s="72">
-        <v>2015</v>
-      </c>
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72" t="s">
-        <v>699</v>
-      </c>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
+        <v>815</v>
+      </c>
+      <c r="B72" s="76">
+        <v>2022</v>
+      </c>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="68"/>
+      <c r="G72" s="68"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="49" t="s">
-        <v>810</v>
-      </c>
-      <c r="B73" s="74">
-        <v>2022</v>
-      </c>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
+      <c r="A73" s="48" t="s">
+        <v>816</v>
+      </c>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="68"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="48" t="s">
-        <v>811</v>
-      </c>
-      <c r="B74" s="67"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
+      <c r="A74" s="49" t="s">
+        <v>817</v>
+      </c>
+      <c r="B74" s="76">
+        <v>2018</v>
+      </c>
+      <c r="C74" s="76"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="76" t="s">
+        <v>682</v>
+      </c>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="49" t="s">
-        <v>812</v>
-      </c>
-      <c r="B75" s="74">
-        <v>2018</v>
-      </c>
-      <c r="C75" s="74"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74" t="s">
-        <v>680</v>
-      </c>
-      <c r="F75" s="66"/>
-      <c r="G75" s="66"/>
+        <v>818</v>
+      </c>
+      <c r="B75" s="69"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="68"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="49" t="s">
-        <v>813</v>
-      </c>
-      <c r="B76" s="67"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
+        <v>819</v>
+      </c>
+      <c r="B76" s="76">
+        <v>2019</v>
+      </c>
+      <c r="C76" s="76"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="68"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="49" t="s">
-        <v>814</v>
-      </c>
-      <c r="B77" s="74">
-        <v>2019</v>
-      </c>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
+        <v>820</v>
+      </c>
+      <c r="B77" s="76">
+        <v>2016</v>
+      </c>
+      <c r="C77" s="76"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="49" t="s">
-        <v>815</v>
-      </c>
-      <c r="B78" s="74">
+        <v>821</v>
+      </c>
+      <c r="B78" s="76">
         <v>2016</v>
       </c>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="66"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="68"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="49" t="s">
-        <v>816</v>
-      </c>
-      <c r="B79" s="74">
-        <v>2016</v>
-      </c>
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
+      <c r="A79" s="48" t="s">
+        <v>822</v>
+      </c>
+      <c r="B79" s="76">
+        <v>2007</v>
+      </c>
+      <c r="C79" s="76"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="68"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="48" t="s">
-        <v>817</v>
-      </c>
-      <c r="B80" s="74">
-        <v>2007</v>
-      </c>
-      <c r="C80" s="74"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="66"/>
+        <v>823</v>
+      </c>
+      <c r="B80" s="76">
+        <v>2003</v>
+      </c>
+      <c r="C80" s="76"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="68"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="48" t="s">
-        <v>818</v>
-      </c>
-      <c r="B81" s="74">
-        <v>2003</v>
-      </c>
-      <c r="C81" s="74"/>
-      <c r="D81" s="74"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
+        <v>824</v>
+      </c>
+      <c r="B81" s="69"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="68"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="48" t="s">
-        <v>819</v>
-      </c>
-      <c r="B82" s="67"/>
-      <c r="C82" s="67"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
+      <c r="A82" s="49" t="s">
+        <v>825</v>
+      </c>
+      <c r="B82" s="76">
+        <v>2015</v>
+      </c>
+      <c r="C82" s="76"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="68"/>
+      <c r="G82" s="68"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="49" t="s">
-        <v>820</v>
-      </c>
-      <c r="B83" s="74">
-        <v>2015</v>
-      </c>
-      <c r="C83" s="74"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
+      <c r="A83" s="48" t="s">
+        <v>826</v>
+      </c>
+      <c r="B83" s="76">
+        <v>2001</v>
+      </c>
+      <c r="C83" s="76"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="68"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="48" t="s">
-        <v>821</v>
-      </c>
-      <c r="B84" s="74">
-        <v>2001</v>
-      </c>
-      <c r="C84" s="74"/>
-      <c r="D84" s="74"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
+      <c r="A84" s="49" t="s">
+        <v>827</v>
+      </c>
+      <c r="B84" s="76">
+        <v>2020</v>
+      </c>
+      <c r="C84" s="76"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="68"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="49" t="s">
-        <v>822</v>
-      </c>
-      <c r="B85" s="74">
-        <v>2020</v>
-      </c>
-      <c r="C85" s="74"/>
-      <c r="D85" s="74"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
+      <c r="A85" s="48" t="s">
+        <v>828</v>
+      </c>
+      <c r="B85" s="76"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="48" t="s">
-        <v>823</v>
-      </c>
-      <c r="B86" s="74"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="66"/>
+      <c r="A86" s="49" t="s">
+        <v>829</v>
+      </c>
+      <c r="B86" s="76">
+        <v>2021</v>
+      </c>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76" t="s">
+        <v>692</v>
+      </c>
+      <c r="F86" s="68"/>
+      <c r="G86" s="68"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="49" t="s">
-        <v>824</v>
-      </c>
-      <c r="B87" s="74">
-        <v>2021</v>
-      </c>
-      <c r="C87" s="74"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="74" t="s">
-        <v>690</v>
-      </c>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
+        <v>830</v>
+      </c>
+      <c r="B87" s="76"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="76"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="68"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="49" t="s">
-        <v>825</v>
-      </c>
-      <c r="B88" s="74"/>
-      <c r="C88" s="74"/>
-      <c r="D88" s="74"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="66"/>
+        <v>831</v>
+      </c>
+      <c r="B88" s="76">
+        <v>2016</v>
+      </c>
+      <c r="C88" s="76"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="76" t="s">
+        <v>701</v>
+      </c>
+      <c r="F88" s="68"/>
+      <c r="G88" s="68"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="49" t="s">
-        <v>826</v>
-      </c>
-      <c r="B89" s="74">
+      <c r="A89" s="48" t="s">
+        <v>832</v>
+      </c>
+      <c r="B89" s="76">
+        <v>2004</v>
+      </c>
+      <c r="C89" s="76"/>
+      <c r="D89" s="76"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="68"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="49" t="s">
+        <v>833</v>
+      </c>
+      <c r="B90" s="76">
         <v>2016</v>
       </c>
-      <c r="C89" s="74"/>
-      <c r="D89" s="74"/>
-      <c r="E89" s="74" t="s">
-        <v>699</v>
-      </c>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="48" t="s">
-        <v>827</v>
-      </c>
-      <c r="B90" s="74">
-        <v>2004</v>
-      </c>
-      <c r="C90" s="74"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="66"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="76"/>
+      <c r="F90" s="68"/>
+      <c r="G90" s="68"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="49" t="s">
-        <v>828</v>
-      </c>
-      <c r="B91" s="74">
-        <v>2016</v>
-      </c>
-      <c r="C91" s="74"/>
-      <c r="D91" s="74"/>
-      <c r="E91" s="74"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
+        <v>834</v>
+      </c>
+      <c r="B91" s="76">
+        <v>2021</v>
+      </c>
+      <c r="C91" s="76"/>
+      <c r="D91" s="76"/>
+      <c r="E91" s="76"/>
+      <c r="F91" s="68"/>
+      <c r="G91" s="68"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="49" t="s">
-        <v>829</v>
-      </c>
-      <c r="B92" s="74">
-        <v>2021</v>
-      </c>
-      <c r="C92" s="74"/>
-      <c r="D92" s="74"/>
-      <c r="E92" s="74"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="66"/>
+      <c r="A92" s="48" t="s">
+        <v>835</v>
+      </c>
+      <c r="B92" s="69"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="48" t="s">
-        <v>830</v>
-      </c>
-      <c r="B93" s="67"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="66"/>
+      <c r="A93" s="49" t="s">
+        <v>836</v>
+      </c>
+      <c r="B93" s="76">
+        <v>1998</v>
+      </c>
+      <c r="C93" s="76"/>
+      <c r="D93" s="76"/>
+      <c r="E93" s="76"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="68"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="49" t="s">
-        <v>831</v>
-      </c>
-      <c r="B94" s="74">
-        <v>1998</v>
-      </c>
-      <c r="C94" s="74"/>
-      <c r="D94" s="74"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="66"/>
+        <v>837</v>
+      </c>
+      <c r="B94" s="76">
+        <v>2017</v>
+      </c>
+      <c r="C94" s="76"/>
+      <c r="D94" s="76"/>
+      <c r="E94" s="76"/>
+      <c r="F94" s="68"/>
+      <c r="G94" s="68"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="49" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="B95" s="74">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C95" s="74"/>
       <c r="D95" s="74"/>
       <c r="E95" s="74"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="66"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="68"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="49" t="s">
-        <v>833</v>
-      </c>
-      <c r="B96" s="72">
-        <v>2016</v>
-      </c>
-      <c r="C96" s="72"/>
-      <c r="D96" s="72"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="66"/>
+        <v>839</v>
+      </c>
+      <c r="B96" s="76">
+        <v>2017</v>
+      </c>
+      <c r="C96" s="76"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="76"/>
+      <c r="F96" s="68"/>
+      <c r="G96" s="68"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="49" t="s">
-        <v>834</v>
-      </c>
-      <c r="B97" s="74">
-        <v>2017</v>
-      </c>
-      <c r="C97" s="74"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
+        <v>840</v>
+      </c>
+      <c r="B97" s="69"/>
+      <c r="C97" s="69"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="69"/>
+      <c r="F97" s="68"/>
+      <c r="G97" s="68"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="49" t="s">
-        <v>835</v>
-      </c>
-      <c r="B98" s="67"/>
-      <c r="C98" s="67"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="66"/>
+        <v>841</v>
+      </c>
+      <c r="B98" s="69"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="68"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="49" t="s">
-        <v>836</v>
-      </c>
-      <c r="B99" s="67"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="66"/>
+        <v>842</v>
+      </c>
+      <c r="B99" s="69"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="68"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="49" t="s">
-        <v>837</v>
-      </c>
-      <c r="B100" s="67"/>
-      <c r="C100" s="67"/>
-      <c r="D100" s="67"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="66"/>
+      <c r="A100" s="48" t="s">
+        <v>843</v>
+      </c>
+      <c r="B100" s="69"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="69"/>
+      <c r="F100" s="68"/>
+      <c r="G100" s="68"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="48" t="s">
-        <v>838</v>
-      </c>
-      <c r="B101" s="67"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
+      <c r="A101" s="49" t="s">
+        <v>844</v>
+      </c>
+      <c r="B101" s="69"/>
+      <c r="C101" s="69"/>
+      <c r="D101" s="69"/>
+      <c r="E101" s="69"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="68"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="49" t="s">
-        <v>839</v>
-      </c>
-      <c r="B102" s="67"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="66"/>
+      <c r="A102" s="48" t="s">
+        <v>845</v>
+      </c>
+      <c r="B102" s="69"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="69"/>
+      <c r="F102" s="68"/>
+      <c r="G102" s="68"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="48" t="s">
-        <v>840</v>
-      </c>
-      <c r="B103" s="67"/>
-      <c r="C103" s="67"/>
-      <c r="D103" s="67"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
+      <c r="A103" s="49" t="s">
+        <v>846</v>
+      </c>
+      <c r="B103" s="69"/>
+      <c r="C103" s="69"/>
+      <c r="D103" s="69"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="68"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="49" t="s">
-        <v>841</v>
-      </c>
-      <c r="B104" s="67"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="67"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="66"/>
-      <c r="G104" s="66"/>
+        <v>847</v>
+      </c>
+      <c r="B104" s="69"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="69"/>
+      <c r="F104" s="68"/>
+      <c r="G104" s="68"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="49" t="s">
-        <v>842</v>
-      </c>
-      <c r="B105" s="67"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="66"/>
+      <c r="A105" s="48" t="s">
+        <v>848</v>
+      </c>
+      <c r="B105" s="69"/>
+      <c r="C105" s="69"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="69"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="68"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="48" t="s">
-        <v>843</v>
-      </c>
-      <c r="B106" s="67"/>
-      <c r="C106" s="67"/>
-      <c r="D106" s="67"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="66"/>
+      <c r="A106" s="49" t="s">
+        <v>849</v>
+      </c>
+      <c r="B106" s="69"/>
+      <c r="C106" s="69"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="69"/>
+      <c r="F106" s="68"/>
+      <c r="G106" s="68"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="49" t="s">
-        <v>844</v>
-      </c>
-      <c r="B107" s="67"/>
-      <c r="C107" s="67"/>
-      <c r="D107" s="67"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="66"/>
-      <c r="G107" s="66"/>
+        <v>850</v>
+      </c>
+      <c r="B107" s="69"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="69"/>
+      <c r="E107" s="69"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="68"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="49" t="s">
-        <v>845</v>
-      </c>
-      <c r="B108" s="67"/>
-      <c r="C108" s="67"/>
-      <c r="D108" s="67"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="66"/>
-      <c r="G108" s="66"/>
+        <v>851</v>
+      </c>
+      <c r="B108" s="69"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="69"/>
+      <c r="E108" s="69"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="68"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="49" t="s">
-        <v>846</v>
-      </c>
-      <c r="B109" s="67"/>
-      <c r="C109" s="67"/>
-      <c r="D109" s="67"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="66"/>
+        <v>852</v>
+      </c>
+      <c r="B109" s="69"/>
+      <c r="C109" s="69"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="69"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="68"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="49" t="s">
-        <v>847</v>
-      </c>
-      <c r="B110" s="67"/>
-      <c r="C110" s="67"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="66"/>
-      <c r="G110" s="66"/>
+      <c r="A110" s="48" t="s">
+        <v>853</v>
+      </c>
+      <c r="B110" s="69"/>
+      <c r="C110" s="69"/>
+      <c r="D110" s="69"/>
+      <c r="E110" s="69"/>
+      <c r="F110" s="68"/>
+      <c r="G110" s="68"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="48" t="s">
-        <v>848</v>
-      </c>
-      <c r="B111" s="67"/>
-      <c r="C111" s="67"/>
-      <c r="D111" s="67"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="66"/>
+      <c r="A111" s="49" t="s">
+        <v>854</v>
+      </c>
+      <c r="B111" s="69"/>
+      <c r="C111" s="69"/>
+      <c r="D111" s="69"/>
+      <c r="E111" s="69"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="68"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="49" t="s">
-        <v>849</v>
-      </c>
-      <c r="B112" s="67"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="67"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="66"/>
-      <c r="G112" s="66"/>
+        <v>855</v>
+      </c>
+      <c r="B112" s="69"/>
+      <c r="C112" s="69"/>
+      <c r="D112" s="69"/>
+      <c r="E112" s="69"/>
+      <c r="F112" s="68"/>
+      <c r="G112" s="68"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="49" t="s">
-        <v>850</v>
-      </c>
-      <c r="B113" s="67"/>
-      <c r="C113" s="67"/>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="66"/>
+      <c r="A113" s="48" t="s">
+        <v>856</v>
+      </c>
+      <c r="B113" s="69"/>
+      <c r="C113" s="69"/>
+      <c r="D113" s="69"/>
+      <c r="E113" s="69"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="68"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="48" t="s">
-        <v>851</v>
-      </c>
-      <c r="B114" s="67"/>
-      <c r="C114" s="67"/>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="66"/>
-      <c r="G114" s="66"/>
+        <v>857</v>
+      </c>
+      <c r="B114" s="69"/>
+      <c r="C114" s="69"/>
+      <c r="D114" s="69"/>
+      <c r="E114" s="69"/>
+      <c r="F114" s="68"/>
+      <c r="G114" s="68"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="48" t="s">
-        <v>852</v>
-      </c>
-      <c r="B115" s="67"/>
-      <c r="C115" s="67"/>
-      <c r="D115" s="67"/>
-      <c r="E115" s="67"/>
-      <c r="F115" s="66"/>
-      <c r="G115" s="66"/>
+        <v>858</v>
+      </c>
+      <c r="B115" s="69"/>
+      <c r="C115" s="69"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="69"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="68"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="48" t="s">
-        <v>853</v>
-      </c>
-      <c r="B116" s="67"/>
-      <c r="C116" s="67"/>
-      <c r="D116" s="67"/>
-      <c r="E116" s="67"/>
-      <c r="F116" s="66"/>
-      <c r="G116" s="66"/>
+        <v>859</v>
+      </c>
+      <c r="B116" s="69"/>
+      <c r="C116" s="69"/>
+      <c r="D116" s="69"/>
+      <c r="E116" s="69"/>
+      <c r="F116" s="68"/>
+      <c r="G116" s="68"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="48" t="s">
-        <v>854</v>
-      </c>
-      <c r="B117" s="67"/>
-      <c r="C117" s="67"/>
-      <c r="D117" s="67"/>
-      <c r="E117" s="67"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
+      <c r="A117" s="49" t="s">
+        <v>860</v>
+      </c>
+      <c r="B117" s="69"/>
+      <c r="C117" s="69"/>
+      <c r="D117" s="69"/>
+      <c r="E117" s="69"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="68"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="49" t="s">
-        <v>855</v>
-      </c>
-      <c r="B118" s="67"/>
-      <c r="C118" s="67"/>
-      <c r="D118" s="67"/>
-      <c r="E118" s="67"/>
-      <c r="F118" s="66"/>
-      <c r="G118" s="66"/>
+        <v>861</v>
+      </c>
+      <c r="B118" s="69"/>
+      <c r="C118" s="69"/>
+      <c r="D118" s="69"/>
+      <c r="E118" s="69"/>
+      <c r="F118" s="68"/>
+      <c r="G118" s="68"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="49" t="s">
-        <v>856</v>
-      </c>
-      <c r="B119" s="67"/>
-      <c r="C119" s="67"/>
-      <c r="D119" s="67"/>
-      <c r="E119" s="67"/>
-      <c r="F119" s="66"/>
-      <c r="G119" s="66"/>
+        <v>862</v>
+      </c>
+      <c r="B119" s="69"/>
+      <c r="C119" s="69"/>
+      <c r="D119" s="69"/>
+      <c r="E119" s="69"/>
+      <c r="F119" s="68"/>
+      <c r="G119" s="68"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="49" t="s">
-        <v>857</v>
-      </c>
-      <c r="B120" s="67"/>
-      <c r="C120" s="67"/>
-      <c r="D120" s="67"/>
-      <c r="E120" s="67"/>
-      <c r="F120" s="66"/>
-      <c r="G120" s="66"/>
+        <v>863</v>
+      </c>
+      <c r="B120" s="69"/>
+      <c r="C120" s="69"/>
+      <c r="D120" s="69"/>
+      <c r="E120" s="69"/>
+      <c r="F120" s="68"/>
+      <c r="G120" s="68"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="49" t="s">
-        <v>858</v>
-      </c>
-      <c r="B121" s="67"/>
-      <c r="C121" s="67"/>
-      <c r="D121" s="67"/>
-      <c r="E121" s="67"/>
-      <c r="F121" s="66"/>
-      <c r="G121" s="66"/>
+      <c r="A121" s="48" t="s">
+        <v>864</v>
+      </c>
+      <c r="B121" s="69"/>
+      <c r="C121" s="69"/>
+      <c r="D121" s="69"/>
+      <c r="E121" s="69"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="68"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="48" t="s">
-        <v>859</v>
-      </c>
-      <c r="B122" s="67"/>
-      <c r="C122" s="67"/>
-      <c r="D122" s="67"/>
-      <c r="E122" s="67"/>
-      <c r="F122" s="66"/>
-      <c r="G122" s="66"/>
+      <c r="A122" s="49" t="s">
+        <v>865</v>
+      </c>
+      <c r="B122" s="69"/>
+      <c r="C122" s="69"/>
+      <c r="D122" s="69"/>
+      <c r="E122" s="69"/>
+      <c r="F122" s="68"/>
+      <c r="G122" s="68"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="49" t="s">
-        <v>860</v>
-      </c>
-      <c r="B123" s="67"/>
-      <c r="C123" s="67"/>
-      <c r="D123" s="67"/>
-      <c r="E123" s="67"/>
-      <c r="F123" s="66"/>
-      <c r="G123" s="66"/>
+        <v>866</v>
+      </c>
+      <c r="B123" s="69"/>
+      <c r="C123" s="69"/>
+      <c r="D123" s="69"/>
+      <c r="E123" s="69"/>
+      <c r="F123" s="68"/>
+      <c r="G123" s="68"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="49" t="s">
-        <v>861</v>
-      </c>
-      <c r="B124" s="67"/>
-      <c r="C124" s="67"/>
-      <c r="D124" s="67"/>
-      <c r="E124" s="67"/>
-      <c r="F124" s="66"/>
-      <c r="G124" s="66"/>
+        <v>867</v>
+      </c>
+      <c r="B124" s="69"/>
+      <c r="C124" s="69"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="69"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="68"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="49" t="s">
-        <v>862</v>
-      </c>
-      <c r="B125" s="67"/>
-      <c r="C125" s="67"/>
-      <c r="D125" s="67"/>
-      <c r="E125" s="67"/>
-      <c r="F125" s="66"/>
-      <c r="G125" s="66"/>
+        <v>868</v>
+      </c>
+      <c r="B125" s="69"/>
+      <c r="C125" s="69"/>
+      <c r="D125" s="69"/>
+      <c r="E125" s="69"/>
+      <c r="F125" s="68"/>
+      <c r="G125" s="68"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="49" t="s">
-        <v>863</v>
-      </c>
-      <c r="B126" s="67"/>
-      <c r="C126" s="67"/>
-      <c r="D126" s="67"/>
-      <c r="E126" s="67"/>
-      <c r="F126" s="66"/>
-      <c r="G126" s="66"/>
+      <c r="A126" s="48" t="s">
+        <v>869</v>
+      </c>
+      <c r="B126" s="69"/>
+      <c r="C126" s="69"/>
+      <c r="D126" s="69"/>
+      <c r="E126" s="69"/>
+      <c r="F126" s="68"/>
+      <c r="G126" s="68"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="48" t="s">
-        <v>864</v>
-      </c>
-      <c r="B127" s="67"/>
-      <c r="C127" s="67"/>
-      <c r="D127" s="67"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="66"/>
-      <c r="G127" s="66"/>
+        <v>870</v>
+      </c>
+      <c r="B127" s="69"/>
+      <c r="C127" s="69"/>
+      <c r="D127" s="69"/>
+      <c r="E127" s="69"/>
+      <c r="F127" s="68"/>
+      <c r="G127" s="68"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="48" t="s">
-        <v>865</v>
-      </c>
-      <c r="B128" s="67"/>
-      <c r="C128" s="67"/>
-      <c r="D128" s="67"/>
-      <c r="E128" s="67"/>
-      <c r="F128" s="66"/>
-      <c r="G128" s="66"/>
+        <v>871</v>
+      </c>
+      <c r="B128" s="69"/>
+      <c r="C128" s="69"/>
+      <c r="D128" s="69"/>
+      <c r="E128" s="69"/>
+      <c r="F128" s="68"/>
+      <c r="G128" s="68"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="48" t="s">
-        <v>866</v>
-      </c>
-      <c r="B129" s="67"/>
-      <c r="C129" s="67"/>
-      <c r="D129" s="67"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="66"/>
-      <c r="G129" s="66"/>
+        <v>872</v>
+      </c>
+      <c r="B129" s="69"/>
+      <c r="C129" s="69"/>
+      <c r="D129" s="69"/>
+      <c r="E129" s="69"/>
+      <c r="F129" s="68"/>
+      <c r="G129" s="68"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="48" t="s">
-        <v>867</v>
-      </c>
-      <c r="B130" s="67"/>
-      <c r="C130" s="67"/>
-      <c r="D130" s="67"/>
-      <c r="E130" s="67"/>
-      <c r="F130" s="66"/>
-      <c r="G130" s="66"/>
+      <c r="A130" s="68" t="s">
+        <v>873</v>
+      </c>
+      <c r="B130" s="69"/>
+      <c r="C130" s="69"/>
+      <c r="D130" s="69"/>
+      <c r="E130" s="69" t="s">
+        <v>701</v>
+      </c>
+      <c r="F130" s="68"/>
+      <c r="G130" s="68"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="66" t="s">
-        <v>868</v>
-      </c>
-      <c r="B131" s="67"/>
-      <c r="C131" s="67"/>
-      <c r="D131" s="67"/>
-      <c r="E131" s="67" t="s">
-        <v>699</v>
-      </c>
-      <c r="F131" s="66"/>
-      <c r="G131" s="66"/>
+      <c r="A131" s="49" t="s">
+        <v>874</v>
+      </c>
+      <c r="B131" s="69"/>
+      <c r="C131" s="69"/>
+      <c r="D131" s="69"/>
+      <c r="E131" s="69"/>
+      <c r="F131" s="68"/>
+      <c r="G131" s="68"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="49" t="s">
-        <v>869</v>
-      </c>
-      <c r="B132" s="67"/>
-      <c r="C132" s="67"/>
-      <c r="D132" s="67"/>
-      <c r="E132" s="67"/>
-      <c r="F132" s="66"/>
-      <c r="G132" s="66"/>
+        <v>875</v>
+      </c>
+      <c r="B132" s="69"/>
+      <c r="C132" s="69"/>
+      <c r="D132" s="69"/>
+      <c r="E132" s="69"/>
+      <c r="F132" s="68"/>
+      <c r="G132" s="68"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="49" t="s">
-        <v>870</v>
-      </c>
-      <c r="B133" s="67"/>
-      <c r="C133" s="67"/>
-      <c r="D133" s="67"/>
-      <c r="E133" s="67"/>
-      <c r="F133" s="66"/>
-      <c r="G133" s="66"/>
+        <v>876</v>
+      </c>
+      <c r="B133" s="69"/>
+      <c r="C133" s="69"/>
+      <c r="D133" s="69"/>
+      <c r="E133" s="69"/>
+      <c r="F133" s="68"/>
+      <c r="G133" s="68"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="49" t="s">
-        <v>871</v>
-      </c>
-      <c r="B134" s="67"/>
-      <c r="C134" s="67"/>
-      <c r="D134" s="67"/>
-      <c r="E134" s="67"/>
-      <c r="F134" s="66"/>
-      <c r="G134" s="66"/>
+        <v>877</v>
+      </c>
+      <c r="B134" s="69"/>
+      <c r="C134" s="69"/>
+      <c r="D134" s="69"/>
+      <c r="E134" s="69"/>
+      <c r="F134" s="68"/>
+      <c r="G134" s="68"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="49" t="s">
-        <v>872</v>
-      </c>
-      <c r="B135" s="67"/>
-      <c r="C135" s="67"/>
-      <c r="D135" s="67"/>
-      <c r="E135" s="67"/>
-      <c r="F135" s="66"/>
-      <c r="G135" s="66"/>
+      <c r="A135" s="48" t="s">
+        <v>878</v>
+      </c>
+      <c r="B135" s="69"/>
+      <c r="C135" s="69"/>
+      <c r="D135" s="69"/>
+      <c r="E135" s="69"/>
+      <c r="F135" s="68"/>
+      <c r="G135" s="68"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="48" t="s">
-        <v>873</v>
-      </c>
-      <c r="B136" s="67"/>
-      <c r="C136" s="67"/>
-      <c r="D136" s="67"/>
-      <c r="E136" s="67"/>
-      <c r="F136" s="66"/>
-      <c r="G136" s="66"/>
+      <c r="A136" s="49" t="s">
+        <v>879</v>
+      </c>
+      <c r="B136" s="69"/>
+      <c r="C136" s="69"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="69"/>
+      <c r="F136" s="68"/>
+      <c r="G136" s="68"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="49" t="s">
-        <v>874</v>
-      </c>
-      <c r="B137" s="67"/>
-      <c r="C137" s="67"/>
-      <c r="D137" s="67"/>
-      <c r="E137" s="67"/>
-      <c r="F137" s="66"/>
-      <c r="G137" s="66"/>
+        <v>880</v>
+      </c>
+      <c r="B137" s="69"/>
+      <c r="C137" s="69"/>
+      <c r="D137" s="69"/>
+      <c r="E137" s="69"/>
+      <c r="F137" s="68"/>
+      <c r="G137" s="68"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="49" t="s">
-        <v>875</v>
-      </c>
-      <c r="B138" s="67"/>
-      <c r="C138" s="67"/>
-      <c r="D138" s="67"/>
-      <c r="E138" s="67"/>
-      <c r="F138" s="66"/>
-      <c r="G138" s="66"/>
+        <v>881</v>
+      </c>
+      <c r="B138" s="69"/>
+      <c r="C138" s="69"/>
+      <c r="D138" s="69"/>
+      <c r="E138" s="69"/>
+      <c r="F138" s="68"/>
+      <c r="G138" s="68"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="49" t="s">
-        <v>876</v>
-      </c>
-      <c r="B139" s="67"/>
-      <c r="C139" s="67"/>
-      <c r="D139" s="67"/>
-      <c r="E139" s="67"/>
-      <c r="F139" s="66"/>
-      <c r="G139" s="66"/>
+      <c r="A139" s="48" t="s">
+        <v>882</v>
+      </c>
+      <c r="B139" s="69"/>
+      <c r="C139" s="69"/>
+      <c r="D139" s="69"/>
+      <c r="E139" s="69"/>
+      <c r="F139" s="68"/>
+      <c r="G139" s="68"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="48" t="s">
-        <v>877</v>
-      </c>
-      <c r="B140" s="67"/>
-      <c r="C140" s="67"/>
-      <c r="D140" s="67"/>
-      <c r="E140" s="67"/>
-      <c r="F140" s="66"/>
-      <c r="G140" s="66"/>
+      <c r="A140" s="49" t="s">
+        <v>883</v>
+      </c>
+      <c r="B140" s="69"/>
+      <c r="C140" s="69"/>
+      <c r="D140" s="69"/>
+      <c r="E140" s="69"/>
+      <c r="F140" s="68"/>
+      <c r="G140" s="68"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="49" t="s">
-        <v>878</v>
-      </c>
-      <c r="B141" s="67"/>
-      <c r="C141" s="67"/>
-      <c r="D141" s="67"/>
-      <c r="E141" s="67"/>
-      <c r="F141" s="66"/>
-      <c r="G141" s="66"/>
+        <v>884</v>
+      </c>
+      <c r="B141" s="69"/>
+      <c r="C141" s="69"/>
+      <c r="D141" s="69"/>
+      <c r="E141" s="69"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="68"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="49" t="s">
-        <v>879</v>
-      </c>
-      <c r="B142" s="67"/>
-      <c r="C142" s="67"/>
-      <c r="D142" s="67"/>
-      <c r="E142" s="67"/>
-      <c r="F142" s="66"/>
-      <c r="G142" s="66"/>
+        <v>885</v>
+      </c>
+      <c r="B142" s="69"/>
+      <c r="C142" s="69"/>
+      <c r="D142" s="69"/>
+      <c r="E142" s="69"/>
+      <c r="F142" s="68"/>
+      <c r="G142" s="68"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="49" t="s">
-        <v>880</v>
-      </c>
-      <c r="B143" s="67"/>
-      <c r="C143" s="67"/>
-      <c r="D143" s="67"/>
-      <c r="E143" s="67"/>
-      <c r="F143" s="66"/>
-      <c r="G143" s="66"/>
+        <v>886</v>
+      </c>
+      <c r="B143" s="69"/>
+      <c r="C143" s="69"/>
+      <c r="D143" s="69"/>
+      <c r="E143" s="69"/>
+      <c r="F143" s="68"/>
+      <c r="G143" s="68"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="49" t="s">
-        <v>881</v>
-      </c>
-      <c r="B144" s="67"/>
-      <c r="C144" s="67"/>
-      <c r="D144" s="67"/>
-      <c r="E144" s="67"/>
-      <c r="F144" s="66"/>
-      <c r="G144" s="66"/>
+        <v>887</v>
+      </c>
+      <c r="B144" s="69"/>
+      <c r="C144" s="69"/>
+      <c r="D144" s="69"/>
+      <c r="E144" s="69"/>
+      <c r="F144" s="68"/>
+      <c r="G144" s="68"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="49" t="s">
-        <v>882</v>
-      </c>
-      <c r="B145" s="67"/>
-      <c r="C145" s="67"/>
-      <c r="D145" s="67"/>
-      <c r="E145" s="67"/>
-      <c r="F145" s="66"/>
-      <c r="G145" s="66"/>
+        <v>888</v>
+      </c>
+      <c r="B145" s="69"/>
+      <c r="C145" s="69"/>
+      <c r="D145" s="69"/>
+      <c r="E145" s="69"/>
+      <c r="F145" s="68"/>
+      <c r="G145" s="68"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="49" t="s">
-        <v>883</v>
-      </c>
-      <c r="B146" s="67"/>
-      <c r="C146" s="67"/>
-      <c r="D146" s="67"/>
-      <c r="E146" s="67"/>
-      <c r="F146" s="66"/>
-      <c r="G146" s="66"/>
+        <v>889</v>
+      </c>
+      <c r="B146" s="69"/>
+      <c r="C146" s="69"/>
+      <c r="D146" s="69"/>
+      <c r="E146" s="69"/>
+      <c r="F146" s="68"/>
+      <c r="G146" s="68"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="49" t="s">
-        <v>884</v>
-      </c>
-      <c r="B147" s="67"/>
-      <c r="C147" s="67"/>
-      <c r="D147" s="67"/>
-      <c r="E147" s="67"/>
-      <c r="F147" s="66"/>
-      <c r="G147" s="66"/>
+      <c r="A147" s="48" t="s">
+        <v>890</v>
+      </c>
+      <c r="B147" s="69"/>
+      <c r="C147" s="69"/>
+      <c r="D147" s="69"/>
+      <c r="E147" s="69"/>
+      <c r="F147" s="68"/>
+      <c r="G147" s="68"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="48" t="s">
-        <v>885</v>
-      </c>
-      <c r="B148" s="67"/>
-      <c r="C148" s="67"/>
-      <c r="D148" s="67"/>
-      <c r="E148" s="67"/>
-      <c r="F148" s="66"/>
-      <c r="G148" s="66"/>
+      <c r="A148" s="49" t="s">
+        <v>891</v>
+      </c>
+      <c r="B148" s="69"/>
+      <c r="C148" s="69"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="69"/>
+      <c r="F148" s="68"/>
+      <c r="G148" s="68"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="49" t="s">
-        <v>886</v>
-      </c>
-      <c r="B149" s="67"/>
-      <c r="C149" s="67"/>
-      <c r="D149" s="67"/>
-      <c r="E149" s="67"/>
-      <c r="F149" s="66"/>
-      <c r="G149" s="66"/>
+      <c r="A149" s="50" t="s">
+        <v>892</v>
+      </c>
+      <c r="B149" s="74">
+        <v>1999</v>
+      </c>
+      <c r="C149" s="74"/>
+      <c r="D149" s="74"/>
+      <c r="E149" s="74"/>
+      <c r="F149" s="68"/>
+      <c r="G149" s="68"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="50" t="s">
-        <v>887</v>
-      </c>
-      <c r="B150" s="72">
-        <v>1999</v>
-      </c>
-      <c r="C150" s="72"/>
-      <c r="D150" s="72"/>
-      <c r="E150" s="72"/>
-      <c r="F150" s="66"/>
-      <c r="G150" s="66"/>
+      <c r="A150" s="68" t="s">
+        <v>893</v>
+      </c>
+      <c r="B150" s="69"/>
+      <c r="C150" s="69"/>
+      <c r="D150" s="69"/>
+      <c r="E150" s="69"/>
+      <c r="F150" s="68"/>
+      <c r="G150" s="68"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="66" t="s">
-        <v>888</v>
-      </c>
-      <c r="B151" s="67"/>
-      <c r="C151" s="67"/>
-      <c r="D151" s="67"/>
-      <c r="E151" s="67"/>
-      <c r="F151" s="66"/>
-      <c r="G151" s="66"/>
+      <c r="A151" s="68" t="s">
+        <v>894</v>
+      </c>
+      <c r="B151" s="69"/>
+      <c r="C151" s="69"/>
+      <c r="D151" s="69"/>
+      <c r="E151" s="69"/>
+      <c r="F151" s="68"/>
+      <c r="G151" s="68"/>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="66" t="s">
-        <v>889</v>
-      </c>
-      <c r="B152" s="67"/>
-      <c r="C152" s="67"/>
-      <c r="D152" s="67"/>
-      <c r="E152" s="67"/>
-      <c r="F152" s="66"/>
-      <c r="G152" s="66"/>
+      <c r="A152" s="68" t="s">
+        <v>895</v>
+      </c>
+      <c r="B152" s="69"/>
+      <c r="C152" s="69"/>
+      <c r="D152" s="69"/>
+      <c r="E152" s="69"/>
+      <c r="F152" s="68"/>
+      <c r="G152" s="68"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="66" t="s">
-        <v>890</v>
-      </c>
-      <c r="B153" s="67"/>
-      <c r="C153" s="67"/>
-      <c r="D153" s="67"/>
-      <c r="E153" s="67"/>
-      <c r="F153" s="66"/>
-      <c r="G153" s="66"/>
+      <c r="A153" s="68" t="s">
+        <v>896</v>
+      </c>
+      <c r="B153" s="68">
+        <v>2005</v>
+      </c>
+      <c r="C153" s="68" t="s">
+        <v>897</v>
+      </c>
+      <c r="D153" s="61" t="s">
+        <v>700</v>
+      </c>
+      <c r="E153" s="68" t="s">
+        <v>701</v>
+      </c>
+      <c r="F153" s="68" t="s">
+        <v>768</v>
+      </c>
+      <c r="G153" s="68" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="66" t="s">
-        <v>891</v>
-      </c>
-      <c r="B154" s="66">
+      <c r="A154" s="68" t="s">
+        <v>898</v>
+      </c>
+      <c r="B154" s="68">
+        <v>2001</v>
+      </c>
+      <c r="C154" s="68" t="s">
+        <v>899</v>
+      </c>
+      <c r="D154" s="61" t="s">
+        <v>700</v>
+      </c>
+      <c r="E154" s="68" t="s">
+        <v>701</v>
+      </c>
+      <c r="F154" s="68" t="s">
+        <v>900</v>
+      </c>
+      <c r="G154" s="68" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="68" t="s">
+        <v>902</v>
+      </c>
+      <c r="B155" s="68">
         <v>2005</v>
       </c>
-      <c r="C154" s="66" t="s">
-        <v>892</v>
-      </c>
-      <c r="D154" s="61" t="s">
-        <v>698</v>
-      </c>
-      <c r="E154" s="66" t="s">
-        <v>699</v>
-      </c>
-      <c r="F154" s="66" t="s">
-        <v>766</v>
-      </c>
-      <c r="G154" s="66" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="66" t="s">
-        <v>893</v>
-      </c>
-      <c r="B155" s="66">
-        <v>2001</v>
-      </c>
-      <c r="C155" s="66" t="s">
-        <v>894</v>
+      <c r="C155" s="68" t="s">
+        <v>903</v>
       </c>
       <c r="D155" s="61" t="s">
-        <v>698</v>
-      </c>
-      <c r="E155" s="66" t="s">
-        <v>699</v>
-      </c>
-      <c r="F155" s="66" t="s">
-        <v>895</v>
-      </c>
-      <c r="G155" s="66" t="s">
-        <v>896</v>
+        <v>700</v>
+      </c>
+      <c r="E155" s="68" t="s">
+        <v>701</v>
+      </c>
+      <c r="F155" s="68" t="s">
+        <v>904</v>
+      </c>
+      <c r="G155" s="68" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="66" t="s">
-        <v>897</v>
-      </c>
-      <c r="B156" s="66">
-        <v>2005</v>
-      </c>
-      <c r="C156" s="66" t="s">
-        <v>898</v>
+      <c r="A156" s="68" t="s">
+        <v>905</v>
+      </c>
+      <c r="B156" s="68">
+        <v>2019</v>
+      </c>
+      <c r="C156" s="68" t="s">
+        <v>906</v>
       </c>
       <c r="D156" s="61" t="s">
-        <v>698</v>
-      </c>
-      <c r="E156" s="66" t="s">
-        <v>699</v>
-      </c>
-      <c r="F156" s="66" t="s">
-        <v>899</v>
-      </c>
-      <c r="G156" s="66" t="s">
-        <v>742</v>
+        <v>700</v>
+      </c>
+      <c r="E156" s="68" t="s">
+        <v>701</v>
+      </c>
+      <c r="F156" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="G156" s="68" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="66" t="s">
-        <v>900</v>
-      </c>
-      <c r="B157" s="66">
+      <c r="A157" s="68" t="s">
+        <v>907</v>
+      </c>
+      <c r="B157" s="68">
         <v>2019</v>
       </c>
-      <c r="C157" s="66" t="s">
-        <v>901</v>
+      <c r="C157" s="68" t="s">
+        <v>908</v>
       </c>
       <c r="D157" s="61" t="s">
-        <v>698</v>
-      </c>
-      <c r="E157" s="66" t="s">
-        <v>699</v>
-      </c>
-      <c r="F157" s="66" t="s">
+        <v>700</v>
+      </c>
+      <c r="E157" s="68" t="s">
+        <v>750</v>
+      </c>
+      <c r="F157" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G157" s="66" t="s">
+      <c r="G157" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="66" t="s">
-        <v>902</v>
-      </c>
-      <c r="B158" s="66">
-        <v>2019</v>
-      </c>
-      <c r="C158" s="66" t="s">
-        <v>903</v>
-      </c>
-      <c r="D158" s="61" t="s">
-        <v>698</v>
-      </c>
-      <c r="E158" s="66" t="s">
-        <v>748</v>
-      </c>
-      <c r="F158" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="G158" s="66" t="s">
-        <v>31</v>
-      </c>
+      <c r="A158" s="68"/>
+      <c r="B158" s="68"/>
+      <c r="C158" s="68"/>
+      <c r="D158" s="68"/>
+      <c r="E158" s="68"/>
+      <c r="F158" s="68"/>
+      <c r="G158" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -19018,94 +19079,94 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60.75">
       <c r="A6" s="6" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="C6" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="D6" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="E6" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="F6" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="6" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="C9" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="D9" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="E9" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="F9" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -19113,67 +19174,67 @@
     </row>
     <row r="13" spans="1:8" ht="30.75">
       <c r="A13" s="15" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="15" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="15" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="15" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:24" ht="30.75">
       <c r="A17" s="15" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="15" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:24" ht="45.75">
       <c r="A19" s="15" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:24" ht="76.5">
       <c r="A20" s="15" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:24" ht="30.75">
       <c r="A21" s="15" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="15" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="15" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B23" s="7"/>
     </row>
@@ -19224,7 +19285,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -19269,7 +19330,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -19389,7 +19450,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -19397,7 +19458,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -19413,7 +19474,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -19429,7 +19490,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -19477,7 +19538,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="B34">
         <v>116</v>
@@ -19502,87 +19563,87 @@
   <sheetData>
     <row r="1" spans="1:6" s="65" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="65" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="B2" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="F2" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="B3" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="F3" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="B4" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="E4" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="F4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="B5" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="E5" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="F5" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B6" t="s">
         <v>958</v>
       </c>
-      <c r="B6" t="s">
-        <v>953</v>
-      </c>
       <c r="E6" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="F6" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="B7" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="E7">
         <v>1960</v>
       </c>
       <c r="F7" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="F8" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
     </row>
   </sheetData>
